--- a/Design and Document/Solve problem DWM1000 host.xlsx
+++ b/Design and Document/Solve problem DWM1000 host.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>Đang sử dụng 2 sketch cho STM32F407VET6 và ESP12 via UART</t>
+  </si>
+  <si>
+    <t>Chưa OTA cho mạch</t>
+  </si>
+  <si>
+    <t>kích hoạt siren, led trong task</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -346,4 +367,45 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="55.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>